--- a/models/2024/01 Example Excel Book.xlsx
+++ b/models/2024/01 Example Excel Book.xlsx
@@ -861,12 +861,12 @@
         <v>0.0909906873</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M8" si="1">(J2-L2)</f>
+        <f t="shared" ref="M2:M26" si="1">(J2-L2)</f>
         <v>-0.0909906873</v>
       </c>
       <c r="N2" s="2">
-        <f>N7</f>
-        <v>0.3432723406</v>
+        <f t="shared" ref="N2:N3" si="2">(M2 + 1) / 2</f>
+        <v>0.4545046564</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
@@ -922,8 +922,8 @@
         <v>-0.4533524674</v>
       </c>
       <c r="N3" s="2">
-        <f>(M2 + 1) / 2</f>
-        <v>0.4545046564</v>
+        <f t="shared" si="2"/>
+        <v>0.2733237663</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -977,7 +977,7 @@
         <v>-0.5022214204</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N26" si="2">(M4 + 1) / 2</f>
+        <f t="shared" ref="N4:N26" si="3">(M4 + 1) / 2</f>
         <v>0.2488892898</v>
       </c>
       <c r="O4" s="2"/>
@@ -1036,7 +1036,7 @@
         <v>-0.5720124991</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2139937505</v>
       </c>
       <c r="O5" s="2"/>
@@ -1095,7 +1095,7 @@
         <v>0.5157212569</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7578606284</v>
       </c>
       <c r="O6" s="2"/>
@@ -1154,7 +1154,7 @@
         <v>-0.3134553188</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3432723406</v>
       </c>
       <c r="O7" s="2"/>
@@ -1213,7 +1213,7 @@
         <v>-0.2822867463</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3588566269</v>
       </c>
       <c r="O8" s="2"/>
@@ -1268,12 +1268,12 @@
         <v>0.3141239116</v>
       </c>
       <c r="M9" s="2">
-        <f>(J8-L8)</f>
-        <v>-0.2822867463</v>
+        <f t="shared" si="1"/>
+        <v>0.6858760884</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3588566269</v>
+        <f t="shared" si="3"/>
+        <v>0.8429380442</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="1" t="s">
@@ -1327,11 +1327,11 @@
         <v>0.2284605768</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" ref="M10:M26" si="3">(J10-L10)</f>
+        <f t="shared" si="1"/>
         <v>0.7715394232</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8857697116</v>
       </c>
       <c r="O10" s="2"/>
@@ -1386,11 +1386,11 @@
         <v>0.2102148789</v>
       </c>
       <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.2102148789</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="3"/>
-        <v>-0.2102148789</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="2"/>
         <v>0.3948925606</v>
       </c>
       <c r="O11" s="2"/>
@@ -1445,11 +1445,11 @@
         <v>0.1677156527</v>
       </c>
       <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1677156527</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1677156527</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="2"/>
         <v>0.4161421736</v>
       </c>
       <c r="O12" s="2"/>
@@ -1504,11 +1504,11 @@
         <v>0.1738432389</v>
       </c>
       <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1738432389</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1738432389</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
         <v>0.4130783806</v>
       </c>
       <c r="O13" s="2"/>
@@ -1563,11 +1563,11 @@
         <v>0.1309464769</v>
       </c>
       <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8690535231</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
-        <v>0.8690535231</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
         <v>0.9345267615</v>
       </c>
       <c r="O14" s="2"/>
@@ -1622,11 +1622,11 @@
         <v>0.07816003409</v>
       </c>
       <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.07816003409</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="3"/>
-        <v>-0.07816003409</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
         <v>0.460919983</v>
       </c>
       <c r="O15" s="2"/>
@@ -1681,11 +1681,11 @@
         <v>0.06740065584</v>
       </c>
       <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.06740065584</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>-0.06740065584</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
         <v>0.4662996721</v>
       </c>
       <c r="O16" s="2"/>
@@ -1740,11 +1740,11 @@
         <v>0.05789237626</v>
       </c>
       <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.05789237626</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="3"/>
-        <v>-0.05789237626</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
         <v>0.4710538119</v>
       </c>
       <c r="O17" s="2"/>
@@ -1799,11 +1799,11 @@
         <v>0.05451189332</v>
       </c>
       <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.05451189332</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="3"/>
-        <v>-0.05451189332</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="2"/>
         <v>0.4727440533</v>
       </c>
       <c r="O18" s="2"/>
@@ -1858,11 +1858,11 @@
         <v>0.03220957792</v>
       </c>
       <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.03220957792</v>
+      </c>
+      <c r="N19" s="2">
         <f t="shared" si="3"/>
-        <v>-0.03220957792</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="2"/>
         <v>0.483895211</v>
       </c>
       <c r="O19" s="2"/>
@@ -1917,11 +1917,11 @@
         <v>0.04205311025</v>
       </c>
       <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9579468898</v>
+      </c>
+      <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>0.9579468898</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="2"/>
         <v>0.9789734449</v>
       </c>
       <c r="O20" s="2"/>
@@ -1976,11 +1976,11 @@
         <v>0.1831850161</v>
       </c>
       <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1831850161</v>
+      </c>
+      <c r="N21" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1831850161</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="2"/>
         <v>0.408407492</v>
       </c>
       <c r="O21" s="2"/>
@@ -2035,11 +2035,11 @@
         <v>0.1802712272</v>
       </c>
       <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1802712272</v>
+      </c>
+      <c r="N22" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1802712272</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="2"/>
         <v>0.4098643864</v>
       </c>
       <c r="O22" s="2"/>
@@ -2094,11 +2094,11 @@
         <v>0.1566110853</v>
       </c>
       <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1566110853</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1566110853</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="2"/>
         <v>0.4216944574</v>
       </c>
       <c r="O23" s="2"/>
@@ -2149,11 +2149,11 @@
         <v>0.1523885504</v>
       </c>
       <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1523885504</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1523885504</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="2"/>
         <v>0.4238057248</v>
       </c>
       <c r="O24" s="2"/>
@@ -2204,11 +2204,11 @@
         <v>0.1614772251</v>
       </c>
       <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8385227749</v>
+      </c>
+      <c r="N25" s="2">
         <f t="shared" si="3"/>
-        <v>0.8385227749</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="2"/>
         <v>0.9192613875</v>
       </c>
       <c r="O25" s="2"/>
@@ -2259,11 +2259,11 @@
         <v>0.1441796505</v>
       </c>
       <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1441796505</v>
+      </c>
+      <c r="N26" s="2">
         <f t="shared" si="3"/>
-        <v>-0.1441796505</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="2"/>
         <v>0.4279101747</v>
       </c>
       <c r="O26" s="2"/>
@@ -2398,16 +2398,16 @@
       </c>
       <c r="M30" s="2">
         <f t="shared" si="4"/>
-        <v>-0.008096234201</v>
+        <v>0.03063027918</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>0.4987498259</v>
+        <v>0.5153151396</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="1">
         <f>M31 / COUNT(M2:M26)</f>
-        <v>-0.008096234201</v>
+        <v>0.03063027918</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>71</v>
@@ -2445,16 +2445,16 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="5"/>
-        <v>-0.202405855</v>
+        <v>0.7657569796</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="5"/>
-        <v>12.46874565</v>
+        <v>12.88287849</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
         <f>N31/COUNT(N2:N26)</f>
-        <v>0.4987498259</v>
+        <v>0.5153151396</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>73</v>
@@ -2552,16 +2552,16 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2">
         <f>COUNT(N2:N26) - ROUND(N31, 0)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P34" s="2">
         <f>ROUND(N31, 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2">
         <f>O34/(O34 + P34)</f>
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
